--- a/data/trans_orig/P1426-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>5055</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1878</v>
+        <v>1815</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11615</v>
+        <v>11287</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01715107678659067</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006370261167345089</v>
+        <v>0.006159168113836169</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03940944061361043</v>
+        <v>0.03829344639517555</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -764,19 +764,19 @@
         <v>6915</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2700</v>
+        <v>2708</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13769</v>
+        <v>14192</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02407503603581012</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009398580346590694</v>
+        <v>0.009428172636813476</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04793352268542971</v>
+        <v>0.04940566624741613</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -785,19 +785,19 @@
         <v>11971</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6054</v>
+        <v>6148</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20244</v>
+        <v>21080</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02056848342977709</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01040272879750757</v>
+        <v>0.01056436624659374</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03478436632000559</v>
+        <v>0.03622144754774727</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>289683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>283123</v>
+        <v>283451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292860</v>
+        <v>292923</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9828489232134093</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9605905593863896</v>
+        <v>0.9617065536048247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9936297388326548</v>
+        <v>0.993840831886164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>250</v>
@@ -835,19 +835,19 @@
         <v>280330</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>273476</v>
+        <v>273053</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284545</v>
+        <v>284537</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9759249639641899</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9520664773145705</v>
+        <v>0.9505943337525838</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9906014196534093</v>
+        <v>0.9905718273631865</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>527</v>
@@ -856,19 +856,19 @@
         <v>570012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>561739</v>
+        <v>560903</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>575929</v>
+        <v>575835</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9794315165702229</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9652156336799944</v>
+        <v>0.9637785524522529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9895972712024925</v>
+        <v>0.9894356337534064</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14194</v>
+        <v>13173</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006241417811286906</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02807702573596979</v>
+        <v>0.02605703787372792</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -981,19 +981,19 @@
         <v>14082</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7341</v>
+        <v>7751</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24052</v>
+        <v>26463</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02688634570263511</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01401613406665266</v>
+        <v>0.01479913285679564</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0459210395218</v>
+        <v>0.05052514345457211</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1002,19 +1002,19 @@
         <v>17237</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9651</v>
+        <v>9369</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29354</v>
+        <v>27517</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01674678266601564</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009376807520918982</v>
+        <v>0.009102712541746169</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02851881652857857</v>
+        <v>0.02673429088626099</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>502372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>491333</v>
+        <v>492354</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>505527</v>
@@ -1040,7 +1040,7 @@
         <v>0.993758582188713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9719229742640298</v>
+        <v>0.9739429621262716</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1052,19 +1052,19 @@
         <v>509683</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>499713</v>
+        <v>497302</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>516424</v>
+        <v>516014</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9731136542973648</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9540789604782</v>
+        <v>0.9494748565454278</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9859838659333473</v>
+        <v>0.9852008671432041</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>938</v>
@@ -1073,19 +1073,19 @@
         <v>1012055</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>999938</v>
+        <v>1001775</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1019641</v>
+        <v>1019923</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9832532173339844</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9714811834714212</v>
+        <v>0.973265709113739</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9906231924790809</v>
+        <v>0.9908972874582538</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>5328</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12784</v>
+        <v>14782</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01644142747906975</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004227883800346676</v>
+        <v>0.004231085915100992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03945241100605993</v>
+        <v>0.04561664218132334</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1198,19 +1198,19 @@
         <v>5184</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1083</v>
+        <v>2007</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11265</v>
+        <v>12415</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01520096554253058</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003175827740120314</v>
+        <v>0.005886010616763596</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03303250609777405</v>
+        <v>0.03640669621040028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1219,19 +1219,19 @@
         <v>10512</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5003</v>
+        <v>5034</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20131</v>
+        <v>19138</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01580536679631742</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007523258423562399</v>
+        <v>0.007569521625411905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03026922657843802</v>
+        <v>0.02877539072567214</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>318718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311262</v>
+        <v>309264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322676</v>
+        <v>322675</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9835585725209303</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9605475889939401</v>
+        <v>0.9543833578186767</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9957721161996533</v>
+        <v>0.995768914084899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>312</v>
@@ -1269,19 +1269,19 @@
         <v>335836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329755</v>
+        <v>328605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>339937</v>
+        <v>339013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9847990344574694</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9669674939022259</v>
+        <v>0.9635933037895996</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9968241722598796</v>
+        <v>0.9941139893832365</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -1290,19 +1290,19 @@
         <v>654554</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644935</v>
+        <v>645928</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>660063</v>
+        <v>660032</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9841946332036826</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.969730773421562</v>
+        <v>0.9712246092743274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9924767415764376</v>
+        <v>0.9924304783745879</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>3092</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>951</v>
+        <v>964</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8541</v>
+        <v>9354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00826708187248513</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002543286154051776</v>
+        <v>0.002578111723574882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02283824465459068</v>
+        <v>0.02501270797246792</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1415,19 +1415,19 @@
         <v>4952</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1942</v>
+        <v>1905</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10942</v>
+        <v>10973</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01273232268457582</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004991692883496793</v>
+        <v>0.004898057577824801</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02813179469630495</v>
+        <v>0.02821053036566179</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1436,19 +1436,19 @@
         <v>8044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3212</v>
+        <v>3957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15173</v>
+        <v>15341</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01054350668106103</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004210497178905989</v>
+        <v>0.00518682664920937</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01988781065615864</v>
+        <v>0.02010789409276819</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>370890</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>365441</v>
+        <v>364628</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>373031</v>
+        <v>373018</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9917329181275149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9771617553454093</v>
+        <v>0.974987292027532</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9974567138459483</v>
+        <v>0.9974218882764251</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -1486,19 +1486,19 @@
         <v>383999</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>378009</v>
+        <v>377978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>387009</v>
+        <v>387046</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9872676773154242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9718682053036951</v>
+        <v>0.9717894696343381</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9950083071165032</v>
+        <v>0.9951019424221752</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>707</v>
@@ -1507,19 +1507,19 @@
         <v>754889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>747760</v>
+        <v>747592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>759721</v>
+        <v>758976</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9894564933189389</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9801121893438414</v>
+        <v>0.9798921059072316</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.995789502821094</v>
+        <v>0.9948131733507906</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>7485</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3116</v>
+        <v>3307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14177</v>
+        <v>15574</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03520513896205007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01465541988292393</v>
+        <v>0.01555342815414255</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06667597751769794</v>
+        <v>0.0732504996816505</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1632,19 +1632,19 @@
         <v>12045</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6286</v>
+        <v>5955</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20900</v>
+        <v>20665</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05485343072118814</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02862450591418611</v>
+        <v>0.02711825008617148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09517845495810694</v>
+        <v>0.0941066288271878</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1653,19 +1653,19 @@
         <v>19531</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12823</v>
+        <v>12124</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30422</v>
+        <v>28979</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04518778079206015</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02966925616924355</v>
+        <v>0.02805140848423507</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07038616027228312</v>
+        <v>0.06704816131557026</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>205133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198441</v>
+        <v>197044</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209502</v>
+        <v>209311</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.96479486103795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9333240224823034</v>
+        <v>0.9267495003183491</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9853445801170762</v>
+        <v>0.9844465718458574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -1703,19 +1703,19 @@
         <v>207546</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198691</v>
+        <v>198926</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213305</v>
+        <v>213636</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9451465692788119</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9048215450418928</v>
+        <v>0.9058933711728132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9713754940858138</v>
+        <v>0.9728817499138286</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>390</v>
@@ -1724,19 +1724,19 @@
         <v>412678</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>401787</v>
+        <v>403230</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>419386</v>
+        <v>420085</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9548122192079398</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9296138397277168</v>
+        <v>0.9329518386844297</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9703307438307562</v>
+        <v>0.9719485915157648</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>8285</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4008</v>
+        <v>4141</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15848</v>
+        <v>16877</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03023950845186606</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0146292548184278</v>
+        <v>0.01511383599303819</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05784171673595232</v>
+        <v>0.06160066346970507</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1849,19 +1849,19 @@
         <v>4269</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10694</v>
+        <v>9838</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01535237211595318</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003927551262610288</v>
+        <v>0.003945284522073917</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03845604379022415</v>
+        <v>0.03537701797152382</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1870,19 +1870,19 @@
         <v>12554</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6349</v>
+        <v>6372</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20045</v>
+        <v>21939</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02274046178459067</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01150055701865728</v>
+        <v>0.01154207433474274</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03630818846306266</v>
+        <v>0.03973817602866271</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>265696</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258133</v>
+        <v>257104</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269973</v>
+        <v>269840</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9697604915481339</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9421582832640477</v>
+        <v>0.9383993365302948</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9853707451815722</v>
+        <v>0.9848861640069618</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>264</v>
@@ -1920,19 +1920,19 @@
         <v>273827</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>267402</v>
+        <v>268258</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277004</v>
+        <v>276999</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9846476278840468</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9615439562097757</v>
+        <v>0.9646229820284762</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9960724487373898</v>
+        <v>0.9960547154779261</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>517</v>
@@ -1941,19 +1941,19 @@
         <v>539523</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>532032</v>
+        <v>530138</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>545728</v>
+        <v>545705</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9772595382154093</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9636918115369374</v>
+        <v>0.9602618239713373</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9884994429813427</v>
+        <v>0.9884579256652573</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>16052</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8851</v>
+        <v>8861</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25466</v>
+        <v>25063</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02421923307689658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01335439348119751</v>
+        <v>0.01336877046582442</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03842329256923786</v>
+        <v>0.03781400391038254</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2066,19 +2066,19 @@
         <v>10602</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5384</v>
+        <v>5266</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19243</v>
+        <v>19178</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01528049323280907</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007758955280353103</v>
+        <v>0.007589189548769423</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02773303260005756</v>
+        <v>0.02764048297095979</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2087,19 +2087,19 @@
         <v>26655</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17340</v>
+        <v>17484</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39369</v>
+        <v>39362</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01964752165895549</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01278169601649236</v>
+        <v>0.0128876714761103</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02901917438535564</v>
+        <v>0.02901395285701078</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>646736</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>637322</v>
+        <v>637725</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>653937</v>
+        <v>653927</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9757807669231034</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9615767074307622</v>
+        <v>0.9621859960896174</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9866456065188025</v>
+        <v>0.9866312295341755</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>626</v>
@@ -2137,19 +2137,19 @@
         <v>683251</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>674610</v>
+        <v>674675</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>688469</v>
+        <v>688587</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9847195067671909</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9722669673999422</v>
+        <v>0.9723595170290404</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9922410447196468</v>
+        <v>0.9924108104512306</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1230</v>
@@ -2158,19 +2158,19 @@
         <v>1329986</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1317272</v>
+        <v>1317279</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1339301</v>
+        <v>1339157</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9803524783410446</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9709808256146444</v>
+        <v>0.9709860471429892</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9872183039835076</v>
+        <v>0.9871123285238896</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>4324</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1117</v>
+        <v>1041</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10838</v>
+        <v>9846</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005550276151257942</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001434046862438361</v>
+        <v>0.00133563991294155</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01391048479212611</v>
+        <v>0.01263784833778388</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2283,19 +2283,19 @@
         <v>7814</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3275</v>
+        <v>3325</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15517</v>
+        <v>15148</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009499630819445935</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003981213037943295</v>
+        <v>0.004042283637702904</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01886446261832327</v>
+        <v>0.01841532732886393</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2304,19 +2304,19 @@
         <v>12138</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6436</v>
+        <v>6533</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21012</v>
+        <v>20721</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007578558372083138</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004017984582875439</v>
+        <v>0.004078644817843372</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0131185960101399</v>
+        <v>0.01293694359566184</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>774774</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>768260</v>
+        <v>769252</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>777981</v>
+        <v>778057</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9944497238487421</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9860895152078739</v>
+        <v>0.9873621516622161</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9985659531375616</v>
+        <v>0.9986643600870585</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>749</v>
@@ -2354,19 +2354,19 @@
         <v>814764</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>807061</v>
+        <v>807430</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>819303</v>
+        <v>819253</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9905003691805541</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9811355373816767</v>
+        <v>0.9815846726711359</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9960187869620567</v>
+        <v>0.9959577163622971</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1462</v>
@@ -2375,19 +2375,19 @@
         <v>1589538</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1580664</v>
+        <v>1580955</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1595240</v>
+        <v>1595143</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9924214416279169</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9868814039898601</v>
+        <v>0.9870630564043382</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9959820154171246</v>
+        <v>0.9959213551821566</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>52777</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>38646</v>
+        <v>38413</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>69628</v>
+        <v>67470</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01540120677617016</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01127767184236873</v>
+        <v>0.01120961007590254</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0203188953073588</v>
+        <v>0.01968892900750232</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>60</v>
@@ -2500,19 +2500,19 @@
         <v>65865</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>51951</v>
+        <v>51096</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>85101</v>
+        <v>83436</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01852691137210892</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01461306786802217</v>
+        <v>0.01437262497095914</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02393786466400844</v>
+        <v>0.02346933955258838</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>107</v>
@@ -2521,19 +2521,19 @@
         <v>118642</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>96523</v>
+        <v>95364</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>142637</v>
+        <v>141798</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01699278265991985</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01382473261360779</v>
+        <v>0.0136588499028152</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02042966418565298</v>
+        <v>0.02030944204941523</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>3374002</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3357151</v>
+        <v>3359309</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3388133</v>
+        <v>3388366</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9845987932238298</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9796811046926411</v>
+        <v>0.9803110709924974</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9887223281576311</v>
+        <v>0.9887903899240974</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3236</v>
@@ -2571,19 +2571,19 @@
         <v>3489233</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3469997</v>
+        <v>3471662</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3503147</v>
+        <v>3504002</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9814730886278911</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9760621353359915</v>
+        <v>0.9765306604474115</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9853869321319778</v>
+        <v>0.9856273750290409</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6398</v>
@@ -2592,19 +2592,19 @@
         <v>6863235</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6839240</v>
+        <v>6840079</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6885354</v>
+        <v>6886513</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9830072173400801</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9795703358143472</v>
+        <v>0.9796905579505848</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9861752673863922</v>
+        <v>0.9863411500971849</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>7200</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2859</v>
+        <v>3000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14489</v>
+        <v>15292</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02450944614723787</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009734063829755165</v>
+        <v>0.01021341244729017</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04932073835527075</v>
+        <v>0.0520567076942996</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2961,19 +2961,19 @@
         <v>8147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3905</v>
+        <v>3878</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15551</v>
+        <v>15166</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02821947340643975</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01352770438687463</v>
+        <v>0.01343140135647398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05386667865331883</v>
+        <v>0.05253163447468406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2982,19 +2982,19 @@
         <v>15347</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9026</v>
+        <v>8408</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25165</v>
+        <v>24746</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02634835120921175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01549614949082135</v>
+        <v>0.01443571324366917</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04320361735068361</v>
+        <v>0.04248506227470767</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>286561</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279272</v>
+        <v>278469</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290902</v>
+        <v>290761</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9754905538527622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9506792616447295</v>
+        <v>0.9479432923057006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9902659361702448</v>
+        <v>0.9897865875527107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -3032,19 +3032,19 @@
         <v>280556</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>273152</v>
+        <v>273537</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284798</v>
+        <v>284825</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9717805265935603</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.946133321346681</v>
+        <v>0.9474683655253134</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9864722956131253</v>
+        <v>0.986568598643526</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>528</v>
@@ -3053,19 +3053,19 @@
         <v>567117</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>557299</v>
+        <v>557718</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>573438</v>
+        <v>574056</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9736516487907882</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9567963826493165</v>
+        <v>0.9575149377252938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9845038505091788</v>
+        <v>0.9855642867563311</v>
       </c>
     </row>
     <row r="6">
@@ -3160,16 +3160,16 @@
         <v>742</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7732</v>
+        <v>7212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005260527220831869</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001476582928598736</v>
+        <v>0.001475747812536384</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01538435862624149</v>
+        <v>0.01434920175474275</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3178,19 +3178,19 @@
         <v>5672</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1176</v>
+        <v>2176</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12171</v>
+        <v>12390</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0108432556267146</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002248228097295248</v>
+        <v>0.004160096290057641</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02326714106678569</v>
+        <v>0.02368673719077816</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -3199,19 +3199,19 @@
         <v>8316</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3880</v>
+        <v>4123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16350</v>
+        <v>17246</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008107706328208897</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003782553476593579</v>
+        <v>0.004019369107067806</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01594079492521328</v>
+        <v>0.01681453811227902</v>
       </c>
     </row>
     <row r="8">
@@ -3228,7 +3228,7 @@
         <v>499931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494843</v>
+        <v>495363</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>501833</v>
@@ -3237,10 +3237,10 @@
         <v>0.9947394727791681</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9846156413737585</v>
+        <v>0.9856507982452573</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9985234170714012</v>
+        <v>0.9985242521874637</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>479</v>
@@ -3249,19 +3249,19 @@
         <v>517412</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>510913</v>
+        <v>510694</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521908</v>
+        <v>520908</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9891567443732854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.976732858933214</v>
+        <v>0.9763132628092218</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9977517719027048</v>
+        <v>0.9958399037099424</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>951</v>
@@ -3270,19 +3270,19 @@
         <v>1017343</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1009309</v>
+        <v>1008413</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1021779</v>
+        <v>1021536</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9918922936717911</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9840592050747867</v>
+        <v>0.9831854618877206</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9962174465234063</v>
+        <v>0.9959806308929321</v>
       </c>
     </row>
     <row r="9">
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6559</v>
+        <v>6239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005400927300577895</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02059050551694748</v>
+        <v>0.01958511355462408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3395,19 +3395,19 @@
         <v>3185</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8900</v>
+        <v>8745</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009469080274920612</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002692272637927977</v>
+        <v>0.002680527300396855</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0264625405415072</v>
+        <v>0.02600224096467071</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3416,19 +3416,19 @@
         <v>4905</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1830</v>
+        <v>1805</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10614</v>
+        <v>11042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007490117690801869</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002795052977720395</v>
+        <v>0.002756161873982723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01620805998673624</v>
+        <v>0.016860729627777</v>
       </c>
     </row>
     <row r="11">
@@ -3445,7 +3445,7 @@
         <v>316844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312006</v>
+        <v>312326</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -3454,7 +3454,7 @@
         <v>0.9945990726994222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9794094944830518</v>
+        <v>0.9804148864453759</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3466,19 +3466,19 @@
         <v>333124</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327409</v>
+        <v>327564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>335404</v>
+        <v>335408</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9905309197250793</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9735374594584932</v>
+        <v>0.9739977590353284</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9973077273620721</v>
+        <v>0.9973194726996031</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>662</v>
@@ -3487,19 +3487,19 @@
         <v>649969</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644260</v>
+        <v>643832</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653044</v>
+        <v>653069</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9925098823091981</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9837919400132634</v>
+        <v>0.983139270372224</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9972049470222795</v>
+        <v>0.9972438381260172</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>7133</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2823</v>
+        <v>2952</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14444</v>
+        <v>14761</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01928144014838421</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00762961518849637</v>
+        <v>0.00797961668804149</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03904158070344847</v>
+        <v>0.03989831379915856</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10406</v>
+        <v>11790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007898267482344059</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02687031427351067</v>
+        <v>0.03044283171474759</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -3633,19 +3633,19 @@
         <v>10192</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4675</v>
+        <v>4799</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19007</v>
+        <v>19044</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01345968149509316</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006173574497863973</v>
+        <v>0.0063380014067792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02509954784565946</v>
+        <v>0.02514890233082409</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>362831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>355520</v>
+        <v>355203</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367141</v>
+        <v>367012</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9807185598516158</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9609584192965518</v>
+        <v>0.9601016862008408</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9923703848115037</v>
+        <v>0.9920203833119582</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>356</v>
@@ -3683,7 +3683,7 @@
         <v>384224</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>376877</v>
+        <v>375493</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>387283</v>
@@ -3692,7 +3692,7 @@
         <v>0.992101732517656</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9731296857264894</v>
+        <v>0.9695571682852531</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3704,19 +3704,19 @@
         <v>747055</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>738240</v>
+        <v>738203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>752572</v>
+        <v>752448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9865403185049069</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9749004521543405</v>
+        <v>0.974851097669176</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9938264255021361</v>
+        <v>0.9936619985932208</v>
       </c>
     </row>
     <row r="15">
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9795</v>
+        <v>9870</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01236644003280673</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04637278865182727</v>
+        <v>0.04672757469094796</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3829,19 +3829,19 @@
         <v>8775</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4293</v>
+        <v>4296</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16924</v>
+        <v>16905</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04014462007231682</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01963880689179298</v>
+        <v>0.01965270306115132</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07742229821088581</v>
+        <v>0.07733803633425416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -3850,19 +3850,19 @@
         <v>11387</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5937</v>
+        <v>5546</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20131</v>
+        <v>21703</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02649355973484783</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01381269761866678</v>
+        <v>0.0129041038631829</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04683792983377751</v>
+        <v>0.05049516675637745</v>
       </c>
     </row>
     <row r="17">
@@ -3879,7 +3879,7 @@
         <v>208609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201426</v>
+        <v>201351</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -3888,7 +3888,7 @@
         <v>0.9876335599671933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9536272113481726</v>
+        <v>0.953272425309052</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3900,19 +3900,19 @@
         <v>209812</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>201663</v>
+        <v>201682</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>214294</v>
+        <v>214291</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9598553799276832</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9225777017891136</v>
+        <v>0.9226619636657456</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9803611931082069</v>
+        <v>0.9803472969388485</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>425</v>
@@ -3921,19 +3921,19 @@
         <v>418421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>409677</v>
+        <v>408105</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423871</v>
+        <v>424262</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9735064402651522</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9531620701662228</v>
+        <v>0.9495048332436226</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9861873023813332</v>
+        <v>0.987095896136817</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>5042</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1846</v>
+        <v>1817</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11369</v>
+        <v>11035</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01916191439516787</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007014485821826714</v>
+        <v>0.006905621181404415</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04320618147534044</v>
+        <v>0.04193717243174922</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -4046,19 +4046,19 @@
         <v>8114</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4093</v>
+        <v>3926</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15394</v>
+        <v>15465</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02970926769077441</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01498697273722529</v>
+        <v>0.01437525251172764</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0563651613897785</v>
+        <v>0.05662622912568754</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -4067,19 +4067,19 @@
         <v>13156</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7043</v>
+        <v>7236</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21783</v>
+        <v>21512</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02453385819993944</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01313333932343948</v>
+        <v>0.01349374565334261</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04062197299428946</v>
+        <v>0.04011729444072148</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>258081</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251754</v>
+        <v>252088</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261277</v>
+        <v>261306</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9808380856048321</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9567938185246598</v>
+        <v>0.9580628275682508</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9929855141781733</v>
+        <v>0.9930943788185956</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>255</v>
@@ -4117,19 +4117,19 @@
         <v>265001</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257721</v>
+        <v>257650</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>269022</v>
+        <v>269189</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9702907323092256</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9436348386102215</v>
+        <v>0.9433737708743132</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9850130272627747</v>
+        <v>0.9856247474882724</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>509</v>
@@ -4138,19 +4138,19 @@
         <v>523082</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>514455</v>
+        <v>514726</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>529195</v>
+        <v>529002</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9754661418000605</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9593780270057105</v>
+        <v>0.9598827055592785</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9868666606765605</v>
+        <v>0.9865062543466572</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>13461</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7765</v>
+        <v>8318</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22559</v>
+        <v>23525</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02050254514895768</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01182733946597731</v>
+        <v>0.01266902471788394</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03435974092970426</v>
+        <v>0.03583034264441753</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -4263,19 +4263,19 @@
         <v>29795</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20250</v>
+        <v>19847</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44521</v>
+        <v>43503</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04310060106677401</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02929292238460386</v>
+        <v>0.02870988289321818</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06440266747597426</v>
+        <v>0.06292927574014029</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -4284,19 +4284,19 @@
         <v>43256</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30848</v>
+        <v>30695</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59052</v>
+        <v>58404</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03209276462911446</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02288681214525006</v>
+        <v>0.02277332231428278</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04381194096998009</v>
+        <v>0.04333151425048889</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>643097</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>633999</v>
+        <v>633033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>648793</v>
+        <v>648240</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9794974548510423</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9656402590702959</v>
+        <v>0.9641696573555836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9881726605340231</v>
+        <v>0.9873309752821161</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>620</v>
@@ -4334,19 +4334,19 @@
         <v>661499</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>646773</v>
+        <v>647791</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>671044</v>
+        <v>671447</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.956899398933226</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.935597332524026</v>
+        <v>0.9370707242598597</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9707070776153963</v>
+        <v>0.9712901171067816</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1186</v>
@@ -4355,19 +4355,19 @@
         <v>1304596</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1288800</v>
+        <v>1289448</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1317004</v>
+        <v>1317157</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9679072353708855</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9561880590300199</v>
+        <v>0.956668485749511</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.97711318785475</v>
+        <v>0.9772266776857171</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>9224</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4567</v>
+        <v>4586</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15948</v>
+        <v>16394</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01184760129493526</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005866109691042909</v>
+        <v>0.00588958771639514</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0204837538885318</v>
+        <v>0.02105669955728562</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -4480,19 +4480,19 @@
         <v>5419</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2135</v>
+        <v>2109</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12616</v>
+        <v>12496</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006559499372083768</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002583729471237264</v>
+        <v>0.002552888021835896</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0152700290038248</v>
+        <v>0.01512539182575976</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -4501,19 +4501,19 @@
         <v>14644</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8865</v>
+        <v>8745</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23648</v>
+        <v>24423</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009125149003213607</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00552422744208213</v>
+        <v>0.005449726209095593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01473611530414098</v>
+        <v>0.01521934171916729</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>769359</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>762635</v>
+        <v>762189</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>774016</v>
+        <v>773997</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9881523987050648</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9795162461114681</v>
+        <v>0.9789433004427142</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9941338903089572</v>
+        <v>0.9941104122836045</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>750</v>
@@ -4551,19 +4551,19 @@
         <v>820748</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>813551</v>
+        <v>813671</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>824032</v>
+        <v>824058</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9934405006279162</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9847299709961753</v>
+        <v>0.9848746081742404</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9974162705287628</v>
+        <v>0.9974471119781642</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1490</v>
@@ -4572,19 +4572,19 @@
         <v>1590106</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1581102</v>
+        <v>1580327</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1595885</v>
+        <v>1596005</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9908748509967864</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9852638846958591</v>
+        <v>0.9847806582808324</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.994475772557918</v>
+        <v>0.9945502737909043</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>49037</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37179</v>
+        <v>38022</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>63587</v>
+        <v>65981</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01444669933309404</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01095322904463467</v>
+        <v>0.01120163088602562</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01873331918467006</v>
+        <v>0.01943862124025562</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>65</v>
@@ -4697,19 +4697,19 @@
         <v>72166</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>58453</v>
+        <v>56879</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>93033</v>
+        <v>92349</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02035973878203713</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01649087558858238</v>
+        <v>0.0160469377708171</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02624685951449256</v>
+        <v>0.02605388389876472</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>115</v>
@@ -4718,19 +4718,19 @@
         <v>121203</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>101513</v>
+        <v>98863</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>146573</v>
+        <v>143245</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01746721264200131</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01462957226251833</v>
+        <v>0.01424773078084309</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02112335616540547</v>
+        <v>0.02064375174792035</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>3345313</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3330763</v>
+        <v>3328369</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3357171</v>
+        <v>3356328</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9855533006669059</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9812666808153301</v>
+        <v>0.9805613787597445</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9890467709553653</v>
+        <v>0.9887983691139745</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3273</v>
@@ -4768,19 +4768,19 @@
         <v>3472376</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3451509</v>
+        <v>3452193</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3486089</v>
+        <v>3487663</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9796402612179629</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9737531404855079</v>
+        <v>0.973946116101235</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9835091244114177</v>
+        <v>0.9839530622291828</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6454</v>
@@ -4789,19 +4789,19 @@
         <v>6817689</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6792319</v>
+        <v>6795647</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6837379</v>
+        <v>6840029</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9825327873579986</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9788766438345945</v>
+        <v>0.9793562482520796</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9853704277374816</v>
+        <v>0.9857522692191569</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>6128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3005</v>
+        <v>2410</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11418</v>
+        <v>11648</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01921994156603412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009426170038664994</v>
+        <v>0.007557646144910133</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03580933439761561</v>
+        <v>0.03653092542234353</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -5158,19 +5158,19 @@
         <v>6225</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3390</v>
+        <v>3272</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10321</v>
+        <v>10509</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01969403289613809</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01072600827420817</v>
+        <v>0.01035292468642478</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03265618652376596</v>
+        <v>0.03324928380913593</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -5179,19 +5179,19 @@
         <v>12353</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8043</v>
+        <v>7579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19471</v>
+        <v>19035</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01945594757092562</v>
+        <v>0.01945594757092563</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01266864429153081</v>
+        <v>0.01193744174602322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03066775781405952</v>
+        <v>0.02998031196147436</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>312717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>307427</v>
+        <v>307197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315840</v>
+        <v>316435</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9807800584339659</v>
+        <v>0.9807800584339661</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.964190665602384</v>
+        <v>0.9634690745776566</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9905738299613349</v>
+        <v>0.9924423538550899</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>526</v>
@@ -5229,19 +5229,19 @@
         <v>309836</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>305740</v>
+        <v>305552</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312671</v>
+        <v>312789</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9803059671038619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9673438134762334</v>
+        <v>0.9667507161908638</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9892739917257919</v>
+        <v>0.9896470753135751</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>849</v>
@@ -5250,19 +5250,19 @@
         <v>622553</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>615435</v>
+        <v>615871</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>626863</v>
+        <v>627327</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9805440524290745</v>
+        <v>0.9805440524290743</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9693322421859409</v>
+        <v>0.9700196880385256</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9873313557084694</v>
+        <v>0.9880625582539766</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>11922</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6137</v>
+        <v>6359</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21310</v>
+        <v>20492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02250823941476829</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01158640661027139</v>
+        <v>0.01200606207506717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04023407749903202</v>
+        <v>0.03868891289825573</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -5375,19 +5375,19 @@
         <v>10270</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5804</v>
+        <v>6126</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16213</v>
+        <v>16294</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01883745183272688</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01064541253628263</v>
+        <v>0.01123719796925789</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02973779657538959</v>
+        <v>0.02988661131517789</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -5396,19 +5396,19 @@
         <v>22192</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14531</v>
+        <v>14667</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32900</v>
+        <v>33986</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02064631906845521</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01351902833975197</v>
+        <v>0.01364566379751512</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03060922694941189</v>
+        <v>0.03161942852074953</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>517738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>508350</v>
+        <v>509168</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>523523</v>
+        <v>523301</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9774917605852317</v>
+        <v>0.9774917605852318</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9597659225009681</v>
+        <v>0.9613110871017442</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9884135933897285</v>
+        <v>0.9879939379249331</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>699</v>
@@ -5446,19 +5446,19 @@
         <v>534924</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>528981</v>
+        <v>528900</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>539390</v>
+        <v>539068</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9811625481672732</v>
+        <v>0.981162548167273</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9702622034246103</v>
+        <v>0.970113388684822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9893545874637172</v>
+        <v>0.9887628020307421</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1069</v>
@@ -5467,19 +5467,19 @@
         <v>1052662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1041954</v>
+        <v>1040868</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1060323</v>
+        <v>1060187</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9793536809315451</v>
+        <v>0.9793536809315448</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9693907730505882</v>
+        <v>0.9683805714792502</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9864809716602481</v>
+        <v>0.9863543362024849</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>29048</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21037</v>
+        <v>21620</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38320</v>
+        <v>38024</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09192628068349704</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06657390225341939</v>
+        <v>0.06841980188184721</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1212678609885954</v>
+        <v>0.1203306158672167</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -5592,19 +5592,19 @@
         <v>20223</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14395</v>
+        <v>14453</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27690</v>
+        <v>27954</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0567460362913934</v>
+        <v>0.05674603629139341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04039308892581676</v>
+        <v>0.04055401243720214</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07769908427742793</v>
+        <v>0.07843942776712227</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -5613,19 +5613,19 @@
         <v>49271</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39918</v>
+        <v>39048</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60876</v>
+        <v>60845</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07327956276282316</v>
+        <v>0.07327956276282314</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.059369201814991</v>
+        <v>0.05807427522929497</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09053846667047698</v>
+        <v>0.09049311484367363</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>286945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>277673</v>
+        <v>277969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>294956</v>
+        <v>294373</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9080737193165032</v>
+        <v>0.9080737193165029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8787321390114049</v>
+        <v>0.8796693841327835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9334260977465805</v>
+        <v>0.931580198118153</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>496</v>
@@ -5663,19 +5663,19 @@
         <v>336158</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328691</v>
+        <v>328427</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>341986</v>
+        <v>341928</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9432539637086065</v>
+        <v>0.9432539637086067</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9223009157225717</v>
+        <v>0.9215605722328778</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9596069110741832</v>
+        <v>0.9594459875627976</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>813</v>
@@ -5684,19 +5684,19 @@
         <v>623104</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>611499</v>
+        <v>611530</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>632457</v>
+        <v>633327</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.926720437237177</v>
+        <v>0.9267204372371769</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9094615333295238</v>
+        <v>0.9095068851563276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9406307981850093</v>
+        <v>0.9419257247707051</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>10633</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6026</v>
+        <v>5811</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18438</v>
+        <v>17164</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02849511859615039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01615030497141099</v>
+        <v>0.01557377962319017</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04941208465454498</v>
+        <v>0.04599811150312755</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -5809,19 +5809,19 @@
         <v>17017</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12072</v>
+        <v>11607</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23463</v>
+        <v>23697</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04032775473017855</v>
+        <v>0.04032775473017856</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02861024319375661</v>
+        <v>0.02750798557580255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05560381900279449</v>
+        <v>0.05615952514779707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -5830,19 +5830,19 @@
         <v>27650</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20746</v>
+        <v>20322</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37888</v>
+        <v>36431</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03477467354561841</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02609148665544709</v>
+        <v>0.02555849178684342</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04765144917921293</v>
+        <v>0.04581879746883095</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>362512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354707</v>
+        <v>355981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367119</v>
+        <v>367334</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9715048814038497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9505879153454549</v>
+        <v>0.9540018884968725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9838496950285891</v>
+        <v>0.9844262203768097</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>564</v>
@@ -5880,19 +5880,19 @@
         <v>404944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>398498</v>
+        <v>398264</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>409889</v>
+        <v>410354</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9596722452698215</v>
+        <v>0.9596722452698216</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9443961809972063</v>
+        <v>0.9438404748522029</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9713897568062437</v>
+        <v>0.9724920144241975</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>842</v>
@@ -5901,19 +5901,19 @@
         <v>767457</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>757219</v>
+        <v>758676</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>774361</v>
+        <v>774785</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9652253264543816</v>
+        <v>0.9652253264543815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9523485508207871</v>
+        <v>0.9541812025311689</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9739085133445529</v>
+        <v>0.9744415082131567</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>14559</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9773</v>
+        <v>9787</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20823</v>
+        <v>20752</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07079095439871101</v>
+        <v>0.070790954398711</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04752070493537323</v>
+        <v>0.04758934732761108</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.101248301459048</v>
+        <v>0.1008996455619852</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -6026,19 +6026,19 @@
         <v>17623</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13278</v>
+        <v>13235</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24028</v>
+        <v>23911</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07798312638632084</v>
+        <v>0.07798312638632082</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0587550517204381</v>
+        <v>0.05856554640606697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1063255063558091</v>
+        <v>0.1058059754721096</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -6047,19 +6047,19 @@
         <v>32182</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25391</v>
+        <v>24780</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40050</v>
+        <v>40165</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07455632666175042</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05882430590762051</v>
+        <v>0.05740844360975696</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09278389228428993</v>
+        <v>0.09305074360617017</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>191106</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184842</v>
+        <v>184913</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195892</v>
+        <v>195878</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9292090456012889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8987516985409516</v>
+        <v>0.8991003544380146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9524792950646264</v>
+        <v>0.9524106526723888</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>445</v>
@@ -6097,19 +6097,19 @@
         <v>208362</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>201957</v>
+        <v>202074</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212707</v>
+        <v>212750</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9220168736136793</v>
+        <v>0.9220168736136791</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8936744936441908</v>
+        <v>0.8941940245278904</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9412449482795618</v>
+        <v>0.941434453593933</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>698</v>
@@ -6118,19 +6118,19 @@
         <v>399467</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391599</v>
+        <v>391484</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>406258</v>
+        <v>406869</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9254436733382495</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.90721610771571</v>
+        <v>0.9069492563938298</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9411756940923794</v>
+        <v>0.9425915563902431</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>36645</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29373</v>
+        <v>28925</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45925</v>
+        <v>45600</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1353680111188404</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1085056064801669</v>
+        <v>0.1068484320198022</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1696498848680231</v>
+        <v>0.1684493082003061</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>77</v>
@@ -6243,19 +6243,19 @@
         <v>32086</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25659</v>
+        <v>25706</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40244</v>
+        <v>40583</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1219526893823778</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09752791172928042</v>
+        <v>0.09770543366009693</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1529598356822512</v>
+        <v>0.1542516658166583</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>150</v>
@@ -6264,19 +6264,19 @@
         <v>68731</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57532</v>
+        <v>58164</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80739</v>
+        <v>81776</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1287559473898238</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1077773630531941</v>
+        <v>0.1089603225548913</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1512524468876962</v>
+        <v>0.1531934012768066</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>234062</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224782</v>
+        <v>225107</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241334</v>
+        <v>241782</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8646319888811598</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8303501151319768</v>
+        <v>0.8315506917996938</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.891494393519833</v>
+        <v>0.8931515679801979</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>382</v>
@@ -6314,19 +6314,19 @@
         <v>231013</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>222855</v>
+        <v>222516</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>237440</v>
+        <v>237393</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8780473106176221</v>
+        <v>0.8780473106176222</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8470401643177493</v>
+        <v>0.8457483341833418</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9024720882707202</v>
+        <v>0.9022945663399031</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>680</v>
@@ -6335,19 +6335,19 @@
         <v>465075</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>453067</v>
+        <v>452030</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>476274</v>
+        <v>475642</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8712440526101762</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8487475531123038</v>
+        <v>0.8468065987231936</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.892222636946806</v>
+        <v>0.8910396774451089</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>39683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28965</v>
+        <v>29078</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54043</v>
+        <v>53661</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05529602589675916</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04036115178409358</v>
+        <v>0.04051769117958217</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07530574045228119</v>
+        <v>0.07477248855522389</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -6460,19 +6460,19 @@
         <v>51415</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39941</v>
+        <v>40741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65065</v>
+        <v>65265</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.0667130000035652</v>
+        <v>0.06671300000356517</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05182528486866831</v>
+        <v>0.05286301982090925</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08442478762359341</v>
+        <v>0.08468339514331646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -6481,19 +6481,19 @@
         <v>91098</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>75571</v>
+        <v>75093</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109674</v>
+        <v>109345</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0612079442009988</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05077548549331628</v>
+        <v>0.05045395157719051</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07368893836534773</v>
+        <v>0.07346763943138113</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>677968</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>663608</v>
+        <v>663990</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>688686</v>
+        <v>688573</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9447039741032408</v>
+        <v>0.944703974103241</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9246942595477187</v>
+        <v>0.9252275114447761</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9596388482159064</v>
+        <v>0.959482308820418</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>888</v>
@@ -6531,19 +6531,19 @@
         <v>719275</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>705625</v>
+        <v>705425</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>730749</v>
+        <v>729949</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9332869999964349</v>
+        <v>0.9332869999964347</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9155752123764066</v>
+        <v>0.9153166048566834</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9481747151313317</v>
+        <v>0.9471369801790905</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1445</v>
@@ -6552,19 +6552,19 @@
         <v>1397243</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1378667</v>
+        <v>1378996</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1412770</v>
+        <v>1413248</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9387920557990013</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9263110616346523</v>
+        <v>0.9265323605686191</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9492245145066838</v>
+        <v>0.9495460484228095</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>15491</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9917</v>
+        <v>9594</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24665</v>
+        <v>23676</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01941106492176249</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01242596695244346</v>
+        <v>0.01202107090542193</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0309056276406768</v>
+        <v>0.02966624803980129</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -6677,19 +6677,19 @@
         <v>19652</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13734</v>
+        <v>13417</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28143</v>
+        <v>27469</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02365949132690563</v>
+        <v>0.02365949132690564</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01653490242141459</v>
+        <v>0.01615283532955175</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03388250644901996</v>
+        <v>0.03307083694934002</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -6698,19 +6698,19 @@
         <v>35143</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26435</v>
+        <v>25628</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46727</v>
+        <v>45589</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02157771441042545</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01623096453813953</v>
+        <v>0.01573548528501054</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02869035680998278</v>
+        <v>0.02799156045632626</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>782581</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>773407</v>
+        <v>774396</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>788155</v>
+        <v>788478</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9805889350782374</v>
+        <v>0.9805889350782375</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9690943723593234</v>
+        <v>0.9703337519601986</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9875740330475566</v>
+        <v>0.9879789290945779</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1031</v>
@@ -6748,19 +6748,19 @@
         <v>810957</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>802466</v>
+        <v>803140</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>816875</v>
+        <v>817192</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9763405086730943</v>
+        <v>0.9763405086730944</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.96611749355098</v>
+        <v>0.9669291630506602</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9834650975785851</v>
+        <v>0.9838471646704482</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1773</v>
@@ -6769,19 +6769,19 @@
         <v>1593538</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1581954</v>
+        <v>1583092</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1602246</v>
+        <v>1603053</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9784222855895744</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9713096431900171</v>
+        <v>0.9720084395436737</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9837690354618605</v>
+        <v>0.9842645147149894</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>164110</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>144913</v>
+        <v>143782</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>189804</v>
+        <v>186969</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04649346519097879</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04105499326965997</v>
+        <v>0.04073453703125983</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05377296798158967</v>
+        <v>0.05296961479724657</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>324</v>
@@ -6894,19 +6894,19 @@
         <v>174510</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>155079</v>
+        <v>156612</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>195944</v>
+        <v>196403</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04678578250453326</v>
+        <v>0.04678578250453325</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04157642490159796</v>
+        <v>0.04198735241255639</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05253224971897013</v>
+        <v>0.05265527877680524</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>559</v>
@@ -6915,19 +6915,19 @@
         <v>338620</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>310467</v>
+        <v>308259</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>369811</v>
+        <v>370866</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04664365529637695</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04276575126121353</v>
+        <v>0.04246155495986137</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05094008397988608</v>
+        <v>0.05108548229795997</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>3365628</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3339934</v>
+        <v>3342769</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3384825</v>
+        <v>3385956</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9535065348090211</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9462270320184102</v>
+        <v>0.9470303852027534</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.95894500673034</v>
+        <v>0.9592654629687402</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5031</v>
@@ -6965,19 +6965,19 @@
         <v>3555471</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3534037</v>
+        <v>3533578</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3574902</v>
+        <v>3573369</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9532142174954668</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9474677502810299</v>
+        <v>0.9473447212231946</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.958423575098402</v>
+        <v>0.9580126475874436</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8169</v>
@@ -6986,19 +6986,19 @@
         <v>6921099</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6889908</v>
+        <v>6888853</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6949252</v>
+        <v>6951460</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9533563447036232</v>
+        <v>0.953356344703623</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9490599160201122</v>
+        <v>0.9489145177020401</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9572342487387864</v>
+        <v>0.9575384450401387</v>
       </c>
     </row>
     <row r="30">
